--- a/biology/Botanique/Commiphora_africana/Commiphora_africana.xlsx
+++ b/biology/Botanique/Commiphora_africana/Commiphora_africana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Commiphora africana est un arbre de la famille des Burseraceae largement répandu en Afrique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste d’environ 5 m de haut, atteignant exceptionnellement 10 m, de la famille des burseracées, largement répandue sur le continent africain, bien que son aire de distribution soit incertaine en raison d’une relative confusion taxonomique. Il est commun dans la brousse d’Acacia-Commiphora et habituellement présent dans les savanes sèches et le Sahel.
 Son port sphérique est facilement reconnaissable de loin. Son tronc est court et ses branches relativement basses. La couronne sphérique est constituée de branches ascendantes qui se courbent vers le bas à leur extrémité. La plupart des branchettes se terminent en épines.
@@ -548,7 +562,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles apparaissent au moment de la saison des pluies ou un peu avant. Il perd ses feuilles au début de la saison sèche. Les années exceptionnelles où les pluies sont rares et intermittentes, deux cycles de feuilles peuvent intervenir. Les fleurs apparaissent normalement à la première moitié de la saison sèche et sont suivies par les feuilles et les fruits. La floraison et la fructification sont irrégulières et n’apparaissent pas chaque année. Les graines sont dures et probablement dispersées par les animaux et les oiseaux.
 </t>
@@ -579,7 +595,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est largement distribué dans les régions sèches d’Afrique, du Sénégal jusqu’à l’Éthiopie à l’Afrique du Sud, et principalement dans les régions basses et sèches du Kenya où il est commun dans la savane à Acacia-Commiphora.
 Pays : Afrique du Sud, Angola, Botswana, Burkina Faso, Tchad, Érythrée, Éthiopie, Kenya, Mali, Mauritanie, Mozambique, Namibie, Niger, Sénégal, Somalie, Soudan, Swaziland, Tanzanie, Ouganda, Zambie, Zimbabwe.
@@ -614,7 +632,9 @@
           <t>Noms locaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Afrikaan : harige kanniedood
 Amharique : anqa
@@ -651,7 +671,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Haie, clôtures, cuillères de bois. Fourrage à chameau et chèvre, particulièrement pendant la saison sèche. Branches utilisées comme brosse à dents.
 </t>
@@ -682,7 +704,9 @@
           <t>Multiplication</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Végétative, par bouturage.
 </t>
